--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3599.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3599.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.662596572114841</v>
+        <v>1.744734287261963</v>
       </c>
       <c r="B1">
-        <v>3.664519189147718</v>
+        <v>4.632020473480225</v>
       </c>
       <c r="C1">
-        <v>4.413064462400336</v>
+        <v>2.864572525024414</v>
       </c>
       <c r="D1">
-        <v>1.190009208542719</v>
+        <v>1.464893460273743</v>
       </c>
       <c r="E1">
-        <v>0.7695702974121665</v>
+        <v>1.080158352851868</v>
       </c>
     </row>
   </sheetData>
